--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,156 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
-        <v>43524</v>
-      </c>
-      <c r="I7" s="2">
-        <v>43343</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E8" s="3">
         <v>889000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>858000</v>
       </c>
-      <c r="F8" s="3">
-        <v>4092000</v>
-      </c>
       <c r="G8" s="3">
+        <v>985000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1118000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="J8" s="3">
         <v>922000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>736000</v>
+      </c>
+      <c r="E9" s="3">
         <v>715000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>696000</v>
       </c>
-      <c r="F9" s="3">
-        <v>3290000</v>
-      </c>
       <c r="G9" s="3">
+        <v>787000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>885000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>859000</v>
+      </c>
+      <c r="J9" s="3">
         <v>759000</v>
       </c>
-      <c r="H9" s="3">
-        <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E10" s="3">
         <v>174000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>162000</v>
       </c>
-      <c r="F10" s="3">
-        <v>802000</v>
-      </c>
       <c r="G10" s="3">
+        <v>198000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>233000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>208000</v>
+      </c>
+      <c r="J10" s="3">
         <v>163000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,66 +888,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-11000</v>
       </c>
       <c r="E14" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F14" s="3">
         <v>208000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>25000</v>
       </c>
       <c r="E15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F15" s="3">
         <v>30000</v>
       </c>
-      <c r="F15" s="3">
-        <v>55000</v>
-      </c>
       <c r="G15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J15" s="3">
         <v>25000</v>
       </c>
-      <c r="H15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>500</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>896000</v>
       </c>
       <c r="E17" s="3">
+        <v>858000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1092000</v>
       </c>
-      <c r="F17" s="3">
-        <v>4151000</v>
-      </c>
       <c r="G17" s="3">
+        <v>1146000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1004000</v>
+      </c>
+      <c r="J17" s="3">
         <v>896000</v>
       </c>
-      <c r="H17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>164900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>62000</v>
       </c>
       <c r="E18" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-234000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-59000</v>
-      </c>
       <c r="G18" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>63000</v>
+      </c>
+      <c r="J18" s="3">
         <v>26000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1043,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>36000</v>
-      </c>
       <c r="G20" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>120000</v>
       </c>
       <c r="E21" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-161000</v>
       </c>
-      <c r="F21" s="3">
-        <v>124000</v>
-      </c>
       <c r="G21" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>90000</v>
+      </c>
+      <c r="J21" s="3">
         <v>53000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="E22" s="3">
         <v>14000</v>
       </c>
       <c r="F22" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="G22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J22" s="3">
         <v>6000</v>
       </c>
-      <c r="H22" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>159600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E23" s="3">
         <v>24000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-245000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-58000</v>
-      </c>
       <c r="G23" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>57000</v>
+      </c>
+      <c r="J23" s="3">
         <v>22000</v>
       </c>
-      <c r="H23" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-159600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>28000</v>
       </c>
       <c r="E24" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-51000</v>
       </c>
-      <c r="F24" s="3">
-        <v>9000</v>
-      </c>
       <c r="G24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-159600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>27000</v>
       </c>
       <c r="E26" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-194000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-67000</v>
-      </c>
       <c r="G26" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J26" s="3">
         <v>21000</v>
       </c>
-      <c r="H26" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-159600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>27000</v>
       </c>
       <c r="E27" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-194000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-67000</v>
-      </c>
       <c r="G27" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J27" s="3">
         <v>21000</v>
       </c>
-      <c r="H27" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-159600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-36000</v>
-      </c>
       <c r="G32" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>27000</v>
       </c>
       <c r="E33" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-194000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-67000</v>
-      </c>
       <c r="G33" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J33" s="3">
         <v>21000</v>
       </c>
-      <c r="H33" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-159600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>27000</v>
       </c>
       <c r="E35" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-194000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-67000</v>
-      </c>
       <c r="G35" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J35" s="3">
         <v>21000</v>
       </c>
-      <c r="H35" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-159600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
-        <v>43524</v>
-      </c>
-      <c r="I38" s="2">
-        <v>43343</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,20 +1620,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E41" s="3">
         <v>377000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>436000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1650,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,25 +1682,28 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>906000</v>
+      </c>
+      <c r="E43" s="3">
         <v>891000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>913000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
-        <v>1264100</v>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1622,20 +1714,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E44" s="3">
         <v>60000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>59000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,25 +1746,28 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E45" s="3">
         <v>66000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3">
-        <v>1243900</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1680,25 +1778,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1504000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1394000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1450000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1709,8 +1810,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,25 +1842,28 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>365000</v>
+        <v>452000</v>
       </c>
       <c r="E48" s="3">
+        <v>467000</v>
+      </c>
+      <c r="F48" s="3">
         <v>500000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="3">
-        <v>3723600</v>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1767,25 +1874,28 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1772000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1799000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1836000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="3">
-        <v>42400</v>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1796,8 +1906,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,25 +1970,28 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45000</v>
+        <v>98000</v>
       </c>
       <c r="E52" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F52" s="3">
         <v>100000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>1373800</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1883,8 +2002,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,25 +2034,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3826000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3770000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3886000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1941,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,20 +2096,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E57" s="3">
         <v>155000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>152000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,19 +2126,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18000</v>
+        <v>44000</v>
       </c>
       <c r="E58" s="3">
-        <v>217000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>45000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>244000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2025,8 +2158,11 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2034,16 +2170,16 @@
         <v>648000</v>
       </c>
       <c r="E59" s="3">
-        <v>550000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>621000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>523000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="3">
-        <v>4000</v>
+      <c r="H59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2054,20 +2190,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>834000</v>
+      </c>
+      <c r="E60" s="3">
         <v>821000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>919000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,19 +2222,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1163000</v>
+        <v>1248000</v>
       </c>
       <c r="E61" s="3">
-        <v>1167000</v>
+        <v>1254000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1260000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2112,19 +2254,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>221000</v>
+        <v>146000</v>
       </c>
       <c r="E62" s="3">
-        <v>275000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>130000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>182000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2141,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,20 +2382,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2228000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2205000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2361000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-262000</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>-289000</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-325000</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,20 +2684,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1598000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1565000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1525000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
-        <v>43524</v>
-      </c>
-      <c r="I80" s="2">
-        <v>43343</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>27000</v>
       </c>
       <c r="E81" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-194000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-67000</v>
-      </c>
       <c r="G81" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J81" s="3">
         <v>21000</v>
       </c>
-      <c r="H81" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-159600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
         <v>74000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70000</v>
       </c>
-      <c r="F83" s="3">
-        <v>147000</v>
-      </c>
       <c r="G83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J83" s="3">
         <v>25000</v>
       </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>800</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-5300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E89" s="3">
         <v>177000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55000</v>
       </c>
-      <c r="F89" s="3">
-        <v>295000</v>
-      </c>
       <c r="G89" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>92000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J89" s="3">
         <v>25000</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-64000</v>
-      </c>
       <c r="G91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,8 +3165,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2948,28 +3177,31 @@
         <v>-1000</v>
       </c>
       <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1779000</v>
-      </c>
       <c r="G94" s="3">
+        <v>-1728000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>18600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3339,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-5000</v>
       </c>
       <c r="E100" s="3">
+        <v>-235000</v>
+      </c>
+      <c r="F100" s="3">
         <v>139000</v>
       </c>
-      <c r="F100" s="3">
-        <v>1388000</v>
-      </c>
       <c r="G100" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J100" s="3">
         <v>-16000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>180000</v>
       </c>
-      <c r="F102" s="3">
-        <v>-97000</v>
-      </c>
       <c r="G102" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>107000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E8" s="3">
         <v>958000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>889000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>858000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>985000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1118000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1067000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>922000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E9" s="3">
         <v>736000</v>
       </c>
-      <c r="E9" s="3">
-        <v>715000</v>
-      </c>
       <c r="F9" s="3">
+        <v>692000</v>
+      </c>
+      <c r="G9" s="3">
         <v>696000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>787000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>885000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>859000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>759000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E10" s="3">
         <v>222000</v>
       </c>
-      <c r="E10" s="3">
-        <v>174000</v>
-      </c>
       <c r="F10" s="3">
+        <v>197000</v>
+      </c>
+      <c r="G10" s="3">
         <v>162000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>198000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>233000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>208000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>163000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,72 +907,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>208000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E15" s="3">
         <v>25000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>30000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>29000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>903000</v>
+      </c>
+      <c r="E17" s="3">
         <v>896000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>858000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1092000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1146000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1105000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1004000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>896000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>164900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E18" s="3">
         <v>62000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>31000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-234000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-161000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>63000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,168 +1076,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>25000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E21" s="3">
         <v>120000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>112000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-161000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-67000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>53000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>14000</v>
       </c>
       <c r="F22" s="3">
         <v>14000</v>
       </c>
       <c r="G22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H22" s="3">
         <v>15000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7000</v>
       </c>
       <c r="I22" s="3">
         <v>7000</v>
       </c>
       <c r="J22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K22" s="3">
         <v>6000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>159600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>55000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-245000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-151000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>57000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-159600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>28000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-51000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2000</v>
       </c>
       <c r="H24" s="3">
         <v>2000</v>
       </c>
       <c r="I24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-159600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E26" s="3">
         <v>27000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-194000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-153000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-159600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E27" s="3">
         <v>27000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-194000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-153000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-159600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-25000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E33" s="3">
         <v>27000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-194000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-153000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-159600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E35" s="3">
         <v>27000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-194000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-153000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-159600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,23 +1706,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E41" s="3">
         <v>467000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>377000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>436000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1653,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,23 +1774,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>781000</v>
+      </c>
+      <c r="E43" s="3">
         <v>906000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>891000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>913000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,23 +1809,26 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E44" s="3">
         <v>57000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>60000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>59000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,23 +1844,26 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E45" s="3">
         <v>74000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>66000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1781,23 +1879,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1504000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1394000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1450000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1813,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,23 +1949,26 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E48" s="3">
         <v>452000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>467000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,23 +1984,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2047000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1772000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1799000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1836000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1909,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,23 +2089,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E52" s="3">
         <v>98000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>110000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,23 +2159,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4065000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3826000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3770000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3886000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2069,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,23 +2226,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E57" s="3">
         <v>142000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>155000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>152000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,23 +2259,26 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E58" s="3">
         <v>44000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>45000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>244000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2161,23 +2294,26 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E59" s="3">
         <v>648000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>621000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>523000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,23 +2329,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E60" s="3">
         <v>834000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>821000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>919000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2225,23 +2364,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1493000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1248000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1254000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1260000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2257,23 +2399,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E62" s="3">
         <v>146000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>130000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>182000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,23 +2539,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2507000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2228000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2205000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2361000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,23 +2729,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-262000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-289000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-325000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,14 +2758,17 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,23 +2869,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1558000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1598000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1565000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1525000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2719,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E81" s="3">
         <v>27000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-194000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-153000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-159600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E83" s="3">
         <v>52000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>74000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>70000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-5300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E89" s="3">
         <v>97000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>177000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>55000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>150000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>92000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>25000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-11000</v>
       </c>
       <c r="G91" s="3">
         <v>-11000</v>
       </c>
       <c r="H91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1000</v>
+        <v>-323000</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
       </c>
       <c r="F94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-15000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>18600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-235000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>139000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1398000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>25000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-16000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E102" s="3">
         <v>90000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>180000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-181000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>107000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>978000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>803000</v>
+      </c>
+      <c r="F8" s="3">
         <v>882000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>958000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>889000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>858000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>985000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1118000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1067000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>922000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>622000</v>
+      </c>
+      <c r="F9" s="3">
         <v>684000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>736000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>692000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>696000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>787000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>885000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>859000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>759000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>181000</v>
+      </c>
+      <c r="F10" s="3">
         <v>198000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>222000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>197000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>162000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>198000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>233000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>208000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>163000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +944,55 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>208000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,34 +1000,40 @@
         <v>30000</v>
       </c>
       <c r="E15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G15" s="3">
         <v>25000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>28000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>30000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>29000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>9000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>25000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>805000</v>
+      </c>
+      <c r="F17" s="3">
         <v>903000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>896000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>858000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1092000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1146000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1105000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1004000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>896000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>164900</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>62000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>31000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-234000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-161000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>63000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1143,215 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>14000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>25000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F21" s="3">
         <v>60000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>120000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>112000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-161000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-67000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>48000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>90000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>53000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F22" s="3">
         <v>11000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>14000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>14000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>15000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>159600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>55000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>24000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-245000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-151000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>57000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>22000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-159600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-51000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-159600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-22000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>27000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>36000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-194000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-153000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>53000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-159600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-244000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>27000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>36000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-194000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-153000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>53000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-159600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-14000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-25000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-244000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>27000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>36000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-194000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-153000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>53000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-159600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-244000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>27000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>36000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-194000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-153000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>53000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-159600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1879,31 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>745000</v>
+      </c>
+      <c r="F41" s="3">
         <v>515000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>467000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>377000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>436000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1916,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,29 +1957,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>747000</v>
+      </c>
+      <c r="F43" s="3">
         <v>781000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>906000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>891000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>913000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,29 +1998,35 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>66000</v>
+      </c>
+      <c r="F44" s="3">
         <v>64000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>57000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>60000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>59000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1847,29 +2039,35 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F45" s="3">
         <v>77000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>74000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>66000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>42000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,29 +2080,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1685000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1437000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1504000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1394000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1450000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2121,14 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,29 +2162,35 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>459000</v>
+      </c>
+      <c r="F48" s="3">
         <v>462000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>452000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>467000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>500000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,29 +2203,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2008000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2047000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1772000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1799000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1836000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,29 +2326,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>118000</v>
+      </c>
+      <c r="F52" s="3">
         <v>119000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>98000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>110000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>100000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2367,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2408,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4243000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4218000</v>
+      </c>
+      <c r="F54" s="3">
         <v>4065000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3826000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3770000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3886000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2449,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2487,31 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F57" s="3">
         <v>150000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>142000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>155000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>152000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,29 +2524,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F58" s="3">
         <v>49000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>44000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>45000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>244000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,29 +2565,35 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>551000</v>
+      </c>
+      <c r="F59" s="3">
         <v>642000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>648000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>621000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>523000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,29 +2606,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>781000</v>
+      </c>
+      <c r="F60" s="3">
         <v>841000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>834000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>821000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>919000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,29 +2647,35 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1538000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1475000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1493000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1248000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1254000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1260000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2402,29 +2688,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F62" s="3">
         <v>173000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>146000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>130000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>182000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2852,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2415000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2427000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2507000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2228000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2205000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2361000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2893,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-271000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-292000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-284000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-262000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-289000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-325000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3238,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1791000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1558000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1598000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1565000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1525000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3279,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-244000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>27000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>36000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-194000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-153000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>53000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-159600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3428,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F83" s="3">
         <v>67000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>52000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>74000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>70000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>69000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>26000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>25000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>-5300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F89" s="3">
         <v>167000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>97000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>177000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>55000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>150000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>92000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>28000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>25000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>40000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3732,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-323000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-19000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-22000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>18600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +4073,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F100" s="3">
         <v>200000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-235000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>139000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1398000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>25000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-19000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-16000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>233000</v>
+      </c>
+      <c r="F102" s="3">
         <v>48000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>90000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-59000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>180000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-181000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>107000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-13000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,207 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1047000</v>
+      </c>
+      <c r="E8" s="3">
         <v>978000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>803000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>882000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>958000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>889000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>858000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>985000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1118000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1067000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>922000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E9" s="3">
         <v>746000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>622000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>684000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>736000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>692000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>696000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>787000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>885000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>859000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>759000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E10" s="3">
         <v>232000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>181000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>198000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>222000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>197000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>162000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>198000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>233000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>208000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>163000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +967,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>208000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,34 +1029,37 @@
         <v>30000</v>
       </c>
       <c r="G15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H15" s="3">
         <v>25000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>28000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>29000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>25000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="E17" s="3">
         <v>940000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>805000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>903000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>896000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>858000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1092000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1146000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1105000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1004000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>896000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>164900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E18" s="3">
         <v>38000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>62000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>31000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-234000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-161000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,49 +1178,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>25000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,40 +1232,43 @@
         <v>96000</v>
       </c>
       <c r="E21" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F21" s="3">
         <v>51000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>60000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>120000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>112000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-161000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-67000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>90000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>53000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,40 +1276,43 @@
         <v>14000</v>
       </c>
       <c r="E22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F22" s="3">
         <v>15000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>14000</v>
       </c>
       <c r="I22" s="3">
         <v>14000</v>
       </c>
       <c r="J22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K22" s="3">
         <v>15000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7000</v>
       </c>
       <c r="L22" s="3">
         <v>7000</v>
       </c>
       <c r="M22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N22" s="3">
         <v>6000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>159600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1277,81 +1320,87 @@
         <v>30000</v>
       </c>
       <c r="E23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>55000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-245000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-151000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-159600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-51000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2000</v>
       </c>
       <c r="K24" s="3">
         <v>2000</v>
       </c>
       <c r="L24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-159600</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E26" s="3">
         <v>21000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-194000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-153000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-159600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E27" s="3">
         <v>21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-244000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-194000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-153000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>53000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-159600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-25000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E33" s="3">
         <v>21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-244000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-194000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-153000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>53000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-159600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E35" s="3">
         <v>21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-244000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-194000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-153000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>53000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-159600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,32 +1967,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E41" s="3">
         <v>686000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>745000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>515000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>467000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>377000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>436000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,32 +2053,35 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>947000</v>
+      </c>
+      <c r="E43" s="3">
         <v>848000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>747000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>781000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>906000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>891000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>913000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,32 +2097,35 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E44" s="3">
         <v>69000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>66000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>64000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>57000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2045,32 +2141,35 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E45" s="3">
         <v>82000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>75000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>77000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>74000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>66000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,32 +2185,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2239000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1685000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1633000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1437000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1504000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1394000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1450000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2229,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,32 +2273,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E48" s="3">
         <v>453000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>459000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>462000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>452000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>467000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,32 +2317,35 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1996000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1991000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2008000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2047000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1772000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1799000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1836000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,32 +2449,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E52" s="3">
         <v>114000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>118000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>119000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>98000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>110000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,32 +2537,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4783000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4243000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4218000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4065000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3826000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3770000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3886000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,32 +2619,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E57" s="3">
         <v>180000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>167000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>150000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>142000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>155000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>152000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,32 +2661,35 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E58" s="3">
         <v>42000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>63000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>49000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>44000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>45000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>244000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,32 +2705,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E59" s="3">
         <v>508000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>551000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>642000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>648000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>621000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>523000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,32 +2749,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>792000</v>
+      </c>
+      <c r="E60" s="3">
         <v>730000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>781000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>841000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>834000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>821000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>919000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,32 +2793,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1538000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1475000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1493000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1248000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1254000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1260000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2694,32 +2837,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E62" s="3">
         <v>147000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>171000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>173000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>146000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>130000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>182000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,32 +3013,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2486000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2415000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2427000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2507000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2228000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2205000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2361000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,32 +3251,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-271000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-292000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-284000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-262000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-289000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-325000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,14 +3289,17 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,32 +3427,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2297000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1828000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1791000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1558000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1598000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1565000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1525000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E81" s="3">
         <v>21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-244000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-194000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-153000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>53000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-159600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,40 +3638,43 @@
         <v>52000</v>
       </c>
       <c r="E83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F83" s="3">
         <v>50000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>52000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>74000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>70000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-5300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>167000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>97000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>177000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>55000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>150000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>25000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3954,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-11000</v>
       </c>
       <c r="J91" s="3">
         <v>-11000</v>
       </c>
       <c r="K91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4084,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-323000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1000</v>
       </c>
       <c r="H94" s="3">
         <v>-1000</v>
       </c>
       <c r="I94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-15000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>18600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4322,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>223000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-235000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>139000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1398000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>25000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-16000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>233000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>90000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-59000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>180000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-181000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>107000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1047000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>978000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>803000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>882000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>958000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>889000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>858000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>985000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1118000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1067000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>922000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E9" s="3">
         <v>795000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>746000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>622000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>684000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>736000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>692000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>696000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>787000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>885000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>859000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>759000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E10" s="3">
         <v>252000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>232000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>181000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>198000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>222000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>197000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>162000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>198000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>233000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>208000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>163000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,48 +998,51 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>208000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="E15" s="3">
         <v>30000</v>
@@ -1032,34 +1054,37 @@
         <v>30000</v>
       </c>
       <c r="H15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I15" s="3">
         <v>25000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>28000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>25000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1006000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>940000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>805000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>903000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>896000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>858000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1092000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1146000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1105000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1004000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>896000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>164900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E18" s="3">
         <v>41000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>62000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>31000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-234000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-161000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>63000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>96000</v>
+        <v>98000</v>
       </c>
       <c r="E21" s="3">
         <v>96000</v>
       </c>
       <c r="F21" s="3">
+        <v>96000</v>
+      </c>
+      <c r="G21" s="3">
         <v>51000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>60000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>120000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>112000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-161000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-67000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>48000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>90000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>53000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="E22" s="3">
         <v>14000</v>
       </c>
       <c r="F22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G22" s="3">
         <v>15000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>14000</v>
       </c>
       <c r="J22" s="3">
         <v>14000</v>
       </c>
       <c r="K22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L22" s="3">
         <v>15000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>7000</v>
       </c>
       <c r="M22" s="3">
         <v>7000</v>
       </c>
       <c r="N22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O22" s="3">
         <v>6000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>159600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="E23" s="3">
         <v>30000</v>
       </c>
       <c r="F23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-14000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>55000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-245000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-151000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-159600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E24" s="3">
         <v>11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-12000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-51000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2000</v>
       </c>
       <c r="L24" s="3">
         <v>2000</v>
       </c>
       <c r="M24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-159600</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>19000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-194000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-153000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>21000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-159600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E27" s="3">
         <v>19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-244000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-194000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-153000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>21000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-159600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E33" s="3">
         <v>19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-244000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-194000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-153000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-159600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E35" s="3">
         <v>19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-244000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-194000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-153000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-159600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,35 +2053,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1188000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1128000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>686000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>745000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>515000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>467000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>377000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>436000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,35 +2145,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>984000</v>
+      </c>
+      <c r="E43" s="3">
         <v>947000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>848000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>747000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>781000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>906000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>891000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>913000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,35 +2192,38 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E44" s="3">
         <v>71000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>69000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>66000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>64000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>57000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>60000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>59000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2144,35 +2239,38 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E45" s="3">
         <v>93000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>82000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>75000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>77000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>74000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>66000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,35 +2286,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2626000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2239000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1685000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1633000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1437000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1504000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1394000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1450000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,35 +2380,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E48" s="3">
         <v>439000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>453000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>459000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>462000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>452000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>467000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>500000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2320,35 +2427,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1988000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1996000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1991000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2008000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2047000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1772000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1799000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1836000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,35 +2568,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E52" s="3">
         <v>109000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>114000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>118000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>119000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>98000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>110000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,35 +2662,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5159000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4783000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4243000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4218000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4065000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3826000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3770000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3886000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,35 +2749,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E57" s="3">
         <v>205000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>180000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>167000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>150000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>142000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>155000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>152000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,35 +2794,38 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E58" s="3">
         <v>29000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>63000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>49000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>44000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>45000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>244000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2708,35 +2841,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E59" s="3">
         <v>558000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>508000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>551000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>642000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>648000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>621000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>523000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,35 +2888,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>867000</v>
+      </c>
+      <c r="E60" s="3">
         <v>792000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>730000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>781000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>841000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>834000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>821000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>919000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,35 +2935,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1845000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1548000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1538000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1475000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1493000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1248000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1254000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1260000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2840,35 +2982,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E62" s="3">
         <v>146000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>147000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>171000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>173000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>146000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>130000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>182000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,35 +3170,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2836000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2486000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2415000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2427000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2507000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2228000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2205000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2361000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,35 +3424,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-237000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-252000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-271000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-292000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-284000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-262000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-289000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-325000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3292,14 +3465,17 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,35 +3612,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2323000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2297000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1828000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1791000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1558000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1598000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1565000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1525000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="E81" s="3">
         <v>19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-244000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-194000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-153000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-159600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52000</v>
+        <v>48000</v>
       </c>
       <c r="E83" s="3">
         <v>52000</v>
       </c>
       <c r="F83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="G83" s="3">
         <v>50000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>67000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>52000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>74000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>70000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-5300</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E89" s="3">
         <v>49000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>167000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>97000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>177000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>55000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>150000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>92000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>40000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-11000</v>
       </c>
       <c r="K91" s="3">
         <v>-11000</v>
       </c>
       <c r="L91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-323000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1000</v>
       </c>
       <c r="I94" s="3">
         <v>-1000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>18600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E100" s="3">
         <v>442000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>223000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-235000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>139000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1398000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>25000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-16000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E102" s="3">
         <v>441000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>233000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>48000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>90000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-59000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>180000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-181000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>107000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,245 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1649000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1471000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1112000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1047000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>978000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>803000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>882000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>958000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>889000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>858000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>985000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1118000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1067000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>922000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="F9" s="3">
         <v>838000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>795000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>746000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>622000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>684000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>736000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>692000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>696000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>787000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>885000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>859000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>759000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>376000</v>
+      </c>
+      <c r="F10" s="3">
         <v>274000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>252000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>232000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>181000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>198000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>222000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>197000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>162000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>198000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>233000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>208000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>163000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,66 +1023,78 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>208000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F15" s="3">
         <v>32000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>30000</v>
       </c>
       <c r="G15" s="3">
         <v>30000</v>
@@ -1057,34 +1103,40 @@
         <v>30000</v>
       </c>
       <c r="I15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K15" s="3">
         <v>25000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>28000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>30000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>29000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>9000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>25000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1590000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1062000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1006000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>940000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>805000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>903000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>896000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>858000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1092000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1146000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1105000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1004000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>896000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>164900</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F18" s="3">
         <v>50000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>41000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>38000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-21000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>62000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>31000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-234000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-161000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>63000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>26000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1278,275 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="F20" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>3000</v>
       </c>
       <c r="H20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>25000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F21" s="3">
         <v>98000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>96000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>96000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>51000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>60000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>120000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>112000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-161000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-67000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>48000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>90000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>53000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F22" s="3">
         <v>17000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>14000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>14000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>15000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>11000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>13000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>14000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>14000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>15000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>6000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>159600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F23" s="3">
         <v>33000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>30000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>30000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>55000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>24000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-245000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-151000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>57000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>22000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-159600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F24" s="3">
         <v>18000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-6000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-12000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-51000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-159600</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F26" s="3">
         <v>15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>19000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>21000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-22000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>27000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>36000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-194000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-153000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>12000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>53000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>21000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-159600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-169000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-244000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>36000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-194000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-153000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>12000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>53000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>21000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-159600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>-11000</v>
       </c>
       <c r="F32" s="3">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-3000</v>
       </c>
       <c r="H32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-25000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-169000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-244000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>36000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-194000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-153000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>12000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>53000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>21000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-159600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-169000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-244000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>36000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-194000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-153000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>12000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>53000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>21000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-159600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2226,43 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>315000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1188000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1128000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>686000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>745000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>515000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>467000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>377000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>436000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2275,14 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,41 +2328,47 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1636000</v>
+      </c>
+      <c r="F43" s="3">
         <v>984000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>947000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>848000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>747000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>781000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>906000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>891000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>913000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,41 +2381,47 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>69000</v>
+        <v>149000</v>
       </c>
       <c r="E44" s="3">
-        <v>71000</v>
+        <v>142000</v>
       </c>
       <c r="F44" s="3">
         <v>69000</v>
       </c>
       <c r="G44" s="3">
+        <v>71000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>69000</v>
+      </c>
+      <c r="I44" s="3">
         <v>66000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>64000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>57000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>60000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>59000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,41 +2434,47 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>134000</v>
+      </c>
+      <c r="F45" s="3">
         <v>385000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>93000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>82000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>75000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>77000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>74000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>66000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>42000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2487,47 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2361000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2227000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2626000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2239000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1685000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1633000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1437000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1504000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1394000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1450000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2540,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,41 +2593,47 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>614000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>628000</v>
+      </c>
+      <c r="F48" s="3">
         <v>427000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>439000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>453000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>459000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>462000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>452000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>467000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,41 +2646,47 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4254000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4492000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1988000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1996000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1991000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2008000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2047000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1772000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1799000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1836000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2805,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>795000</v>
+      </c>
+      <c r="F52" s="3">
         <v>118000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>109000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>114000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>118000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>119000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>98000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>110000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>100000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2911,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8054000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8142000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5159000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4783000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4243000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4218000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4065000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3826000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3770000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3886000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2964,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +3010,43 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>391000</v>
+      </c>
+      <c r="F57" s="3">
         <v>236000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>205000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>180000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>167000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>150000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>142000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>155000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>152000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,41 +3059,47 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F58" s="3">
         <v>28000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>29000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>42000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>63000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>49000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>44000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>45000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>244000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,41 +3112,47 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>998000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>971000</v>
+      </c>
+      <c r="F59" s="3">
         <v>603000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>558000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>508000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>551000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>642000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>648000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>621000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>523000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3165,47 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1367000</v>
+      </c>
+      <c r="F60" s="3">
         <v>867000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>792000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>730000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>781000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>841000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>834000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>821000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>919000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,41 +3218,47 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2823000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2819000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1845000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1548000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1538000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1475000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1493000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1248000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1254000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1260000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,41 +3271,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>881000</v>
+      </c>
+      <c r="F62" s="3">
         <v>124000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>146000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>147000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>171000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>173000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>146000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>130000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>182000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3483,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5101000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5067000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2836000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2486000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2415000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2427000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2507000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2228000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2205000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2361000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3536,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,16 +3663,22 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>797000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>797000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-237000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-252000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-271000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-292000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-284000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-262000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-289000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-325000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3981,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2156000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2278000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2323000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2297000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1828000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1791000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1558000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1598000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1565000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1525000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +4034,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-169000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-244000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>36000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-194000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-153000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>12000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>53000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>21000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-159600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4223,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F83" s="3">
         <v>48000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>52000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>52000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>67000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>52000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>74000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>70000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>69000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>27000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>26000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>25000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="F89" s="3">
         <v>114000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>49000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>32000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>167000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>97000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>177000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>55000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>150000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>92000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>28000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>25000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>40000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-14000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-18000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-22000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2884000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-40000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-46000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-23000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-323000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-19000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-22000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>18600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5056,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1831000</v>
+      </c>
+      <c r="F100" s="3">
         <v>288000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>442000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-36000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>223000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-235000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>139000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1398000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>25000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-19000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-16000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1173000</v>
+      </c>
+      <c r="F102" s="3">
         <v>361000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>441000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-59000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>233000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>48000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>90000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-59000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>180000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-181000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>107000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-10000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1735000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1649000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1471000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1112000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1047000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>978000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>803000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>882000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>958000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>889000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>858000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>985000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1118000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1067000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>922000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1293000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1212000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1095000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>838000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>795000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>746000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>622000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>684000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>736000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>692000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>696000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>787000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>885000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>859000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>759000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E10" s="3">
         <v>437000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>376000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>274000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>252000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>232000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>181000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>198000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>222000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>197000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>162000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>198000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>233000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>208000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>163000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,75 +1046,81 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-11000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>208000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E15" s="3">
         <v>53000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>54000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>30000</v>
       </c>
       <c r="H15" s="3">
         <v>30000</v>
@@ -1109,34 +1132,37 @@
         <v>30000</v>
       </c>
       <c r="K15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L15" s="3">
         <v>25000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>30000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>29000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>25000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1669000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1590000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1478000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1062000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1006000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>940000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>805000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>903000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>896000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>858000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1092000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1146000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1105000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1004000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>896000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>164900</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E18" s="3">
         <v>59000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>50000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>41000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>62000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>31000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-234000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-161000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>63000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,264 +1323,279 @@
         <v>13000</v>
       </c>
       <c r="E20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E21" s="3">
         <v>148000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>80000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>98000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>96000</v>
       </c>
       <c r="H21" s="3">
         <v>96000</v>
       </c>
       <c r="I21" s="3">
+        <v>96000</v>
+      </c>
+      <c r="J21" s="3">
         <v>51000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>120000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>112000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-161000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-67000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>48000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>90000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>53000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E22" s="3">
         <v>28000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>14000</v>
       </c>
       <c r="H22" s="3">
         <v>14000</v>
       </c>
       <c r="I22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J22" s="3">
         <v>15000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>14000</v>
       </c>
       <c r="M22" s="3">
         <v>14000</v>
       </c>
       <c r="N22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="O22" s="3">
         <v>15000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>7000</v>
       </c>
       <c r="P22" s="3">
         <v>7000</v>
       </c>
       <c r="Q22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R22" s="3">
         <v>6000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>159600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E23" s="3">
         <v>44000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>30000</v>
       </c>
       <c r="H23" s="3">
         <v>30000</v>
       </c>
       <c r="I23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>55000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-245000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-151000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-159600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E24" s="3">
         <v>14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-12000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-51000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2000</v>
       </c>
       <c r="O24" s="3">
         <v>2000</v>
       </c>
       <c r="P24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-159600</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E26" s="3">
         <v>30000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-194000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-153000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-159600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E27" s="3">
         <v>19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-169000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-244000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-194000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-153000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-159600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,105 +1995,111 @@
         <v>-13000</v>
       </c>
       <c r="E32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E33" s="3">
         <v>19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-169000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-244000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-194000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-153000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>53000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-159600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E35" s="3">
         <v>19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-169000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-244000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-194000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-153000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>53000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-159600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2314,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E41" s="3">
         <v>330000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>315000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1188000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1128000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>686000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>745000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>515000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>467000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>377000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>436000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,44 +2424,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1712000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1636000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>984000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>947000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>848000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>747000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>781000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>906000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>891000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>913000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,44 +2480,47 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E44" s="3">
         <v>149000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>142000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>69000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>71000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>69000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>66000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>64000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>57000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>59000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,44 +2536,47 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E45" s="3">
         <v>170000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>134000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>385000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>93000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>82000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>75000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>77000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>74000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>42000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,44 +2592,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2472000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2361000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2227000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2626000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2239000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1685000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1633000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1437000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1504000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1394000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1450000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2648,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,44 +2704,47 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E48" s="3">
         <v>614000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>628000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>427000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>439000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>453000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>459000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>462000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>452000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>467000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,44 +2760,47 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4010000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4254000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4492000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1988000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1996000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1991000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2008000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2047000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1772000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1799000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1836000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,44 +2928,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E52" s="3">
         <v>825000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>795000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>118000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>109000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>114000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>118000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>119000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>98000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>110000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3040,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7941000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8054000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8142000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5159000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4783000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4243000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4218000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4065000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3826000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3770000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3886000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3096,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,44 +3142,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E57" s="3">
         <v>448000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>391000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>236000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>205000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>180000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>167000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>150000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>142000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>155000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>152000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3065,44 +3196,47 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>28000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>29000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>42000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>63000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>49000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>44000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>45000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>244000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,44 +3252,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E59" s="3">
         <v>998000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>971000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>603000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>558000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>508000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>551000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>642000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>648000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>621000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>523000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,44 +3308,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1523000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1453000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1367000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>867000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>792000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>730000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>781000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>841000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>834000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>821000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>919000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,44 +3364,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2791000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2823000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2819000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1845000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1548000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1538000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1475000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1493000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1248000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1254000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1260000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3277,44 +3420,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>680000</v>
+      </c>
+      <c r="E62" s="3">
         <v>825000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>881000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>124000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>146000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>147000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>171000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>173000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>146000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>130000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>182000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3644,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4994000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5101000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5067000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2836000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2486000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2415000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2427000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2507000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2228000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2205000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2361000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3700,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3681,7 +3849,7 @@
         <v>797000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>797000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3946,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-214000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-255000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-237000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-252000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-271000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-292000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-284000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-262000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-289000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-325000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3822,14 +3996,17 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4170,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2150000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2156000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2278000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2323000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2297000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1828000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1791000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1558000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1598000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1565000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1525000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4226,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E81" s="3">
         <v>19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-169000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-244000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-194000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-153000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>53000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-159600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>76000</v>
+        <v>73000</v>
       </c>
       <c r="E83" s="3">
         <v>76000</v>
       </c>
       <c r="F83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="G83" s="3">
         <v>48000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>52000</v>
       </c>
       <c r="H83" s="3">
         <v>52000</v>
       </c>
       <c r="I83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="J83" s="3">
         <v>50000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>67000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>52000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>70000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>69000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-5300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E89" s="3">
         <v>54000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-118000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>114000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>167000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>97000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>177000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>55000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>150000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>92000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>40000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-22000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-12000</v>
       </c>
       <c r="F91" s="3">
         <v>-12000</v>
       </c>
       <c r="G91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-11000</v>
       </c>
       <c r="N91" s="3">
         <v>-11000</v>
       </c>
       <c r="O91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-40000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-46000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-323000</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1000</v>
       </c>
       <c r="L94" s="3">
         <v>-1000</v>
       </c>
       <c r="M94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>18600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1831000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>288000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>442000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>223000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-235000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>139000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1398000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>25000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-16000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E102" s="3">
         <v>15000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1173000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>361000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>441000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-59000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>233000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>90000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-59000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>180000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-181000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>107000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1735000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1649000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1471000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1112000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1047000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>978000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>803000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>882000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>958000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>889000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>858000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>985000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1118000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1067000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>922000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1237000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1293000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1212000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1095000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>838000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>795000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>746000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>622000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>684000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>736000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>692000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>696000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>787000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>885000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>859000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>759000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E10" s="3">
         <v>442000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>437000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>376000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>274000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>252000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>232000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>181000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>198000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>222000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>197000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>162000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>198000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>233000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>208000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>163000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,81 +1065,87 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-11000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>208000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E15" s="3">
         <v>36000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>53000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>54000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>32000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>30000</v>
       </c>
       <c r="I15" s="3">
         <v>30000</v>
@@ -1135,34 +1157,37 @@
         <v>30000</v>
       </c>
       <c r="L15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M15" s="3">
         <v>25000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>28000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>30000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>29000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>25000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1654000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1669000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1590000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1478000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1062000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1006000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>940000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>805000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>903000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>896000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>858000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1092000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1146000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1105000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1004000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>896000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>164900</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E18" s="3">
         <v>66000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>59000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>50000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>62000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>31000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-234000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-161000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>63000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="E20" s="3">
         <v>13000</v>
       </c>
       <c r="F20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G20" s="3">
         <v>11000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E21" s="3">
         <v>152000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>148000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>80000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>98000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>96000</v>
       </c>
       <c r="I21" s="3">
         <v>96000</v>
       </c>
       <c r="J21" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K21" s="3">
         <v>51000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>120000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-161000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-67000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>48000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>90000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>53000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E22" s="3">
         <v>33000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>14000</v>
       </c>
       <c r="I22" s="3">
         <v>14000</v>
       </c>
       <c r="J22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K22" s="3">
         <v>15000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>14000</v>
       </c>
       <c r="N22" s="3">
         <v>14000</v>
       </c>
       <c r="O22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="P22" s="3">
         <v>15000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>7000</v>
       </c>
       <c r="Q22" s="3">
         <v>7000</v>
       </c>
       <c r="R22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S22" s="3">
         <v>6000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>159600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E23" s="3">
         <v>46000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>30000</v>
       </c>
       <c r="I23" s="3">
         <v>30000</v>
       </c>
       <c r="J23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>55000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-245000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-151000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>14000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-159600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>18000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-16000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-12000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-51000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2000</v>
       </c>
       <c r="P24" s="3">
         <v>2000</v>
       </c>
       <c r="Q24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R24" s="3">
         <v>4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-159600</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E26" s="3">
         <v>28000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-194000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-153000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-159600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E27" s="3">
         <v>17000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-169000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-244000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-194000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-153000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-159600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13000</v>
+        <v>-14000</v>
       </c>
       <c r="E32" s="3">
         <v>-13000</v>
       </c>
       <c r="F32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-11000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E33" s="3">
         <v>17000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-169000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-244000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-194000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-153000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>53000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-159600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E35" s="3">
         <v>17000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-169000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-244000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-194000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-153000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>53000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-159600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,47 +2400,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E41" s="3">
         <v>395000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>330000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>315000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1188000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1128000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>686000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>745000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>515000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>467000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>377000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>436000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2457,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,47 +2516,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1772000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1760000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1712000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1636000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>984000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>947000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>848000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>747000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>781000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>906000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>891000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>913000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2483,47 +2575,50 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E44" s="3">
         <v>150000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>149000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>142000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>69000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>71000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>69000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>66000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>64000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>57000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>60000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>59000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,47 +2634,50 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E45" s="3">
         <v>167000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>170000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>134000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>385000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>93000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>82000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>75000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>77000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2595,47 +2693,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2652000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2472000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2361000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2227000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2626000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2239000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1685000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1633000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1437000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1504000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1394000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1450000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,47 +2811,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E48" s="3">
         <v>608000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>614000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>628000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>427000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>439000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>453000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>459000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>462000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>452000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>467000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>500000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2763,47 +2870,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4166000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4010000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4254000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4492000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1988000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1996000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1991000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2008000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2047000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1772000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1799000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1836000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,47 +3047,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>644000</v>
+      </c>
+      <c r="E52" s="3">
         <v>851000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>825000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>795000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>118000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>109000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>114000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>118000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>119000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>98000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>110000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,47 +3165,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8091000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7941000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8054000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8142000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5159000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4783000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4243000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4218000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4065000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3826000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3770000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3886000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,47 +3272,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>490000</v>
+      </c>
+      <c r="E57" s="3">
         <v>469000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>448000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>391000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>236000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>205000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>180000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>167000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>150000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>142000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>155000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>152000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,47 +3329,50 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>28000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>63000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>49000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>44000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>45000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>244000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3255,47 +3388,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1219000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1043000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>998000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>971000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>603000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>558000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>508000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>551000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>642000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>648000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>621000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>523000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3311,47 +3447,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1921000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1523000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1453000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1367000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>867000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>792000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>730000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>781000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>841000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>834000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>821000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>919000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3367,47 +3506,50 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2595000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2791000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2823000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2819000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1845000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1548000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1538000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1475000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1493000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1248000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1254000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1260000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3423,47 +3565,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>651000</v>
+      </c>
+      <c r="E62" s="3">
         <v>680000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>825000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>881000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>124000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>146000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>147000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>171000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>146000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>130000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>182000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3479,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,47 +3801,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5167000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4994000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5101000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5067000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2836000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2486000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2415000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2427000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2507000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2228000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2205000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2361000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3703,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3852,7 +4019,7 @@
         <v>797000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>797000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,47 +4119,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-186000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-214000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-255000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-237000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-252000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-271000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-292000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-284000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-262000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-289000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-325000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,14 +4172,17 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,47 +4355,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2127000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2150000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2156000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2278000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2323000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2297000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1828000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1791000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1558000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1598000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1565000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1525000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4229,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E81" s="3">
         <v>17000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-169000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-244000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-194000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-153000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>53000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-159600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E83" s="3">
         <v>73000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>76000</v>
       </c>
       <c r="F83" s="3">
         <v>76000</v>
       </c>
       <c r="G83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="H83" s="3">
         <v>48000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>52000</v>
       </c>
       <c r="I83" s="3">
         <v>52000</v>
       </c>
       <c r="J83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K83" s="3">
         <v>50000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>52000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>74000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>70000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>69000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>-5300</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E89" s="3">
         <v>146000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>54000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-118000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>114000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>167000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>97000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>177000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>55000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>150000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>92000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>25000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>40000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-22000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-12000</v>
       </c>
       <c r="G91" s="3">
         <v>-12000</v>
       </c>
       <c r="H91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-11000</v>
       </c>
       <c r="O91" s="3">
         <v>-11000</v>
       </c>
       <c r="P91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22000</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-323000</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1000</v>
       </c>
       <c r="M94" s="3">
         <v>-1000</v>
       </c>
       <c r="N94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>18600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-45000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1831000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>288000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>442000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>223000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-235000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>139000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1398000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>25000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-19000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-16000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E102" s="3">
         <v>65000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1173000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>361000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>441000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-59000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>233000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>90000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-59000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>180000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-181000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>107000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13000</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1614000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1703000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1735000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1649000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1471000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1112000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1047000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>978000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>803000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>882000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>958000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>889000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>858000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>985000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1118000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1067000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>922000</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1237000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1293000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1212000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1095000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>838000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>795000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>746000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>622000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>684000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>736000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>692000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>696000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>787000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>885000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>859000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>759000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>425000</v>
+      </c>
+      <c r="E10" s="3">
         <v>466000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>442000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>437000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>376000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>274000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>252000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>232000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>181000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>198000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>222000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>197000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>162000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>198000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>233000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>208000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>163000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,87 +1085,93 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-11000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>208000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E15" s="3">
         <v>54000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>36000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>53000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>54000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>32000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>30000</v>
       </c>
       <c r="J15" s="3">
         <v>30000</v>
@@ -1160,34 +1183,37 @@
         <v>30000</v>
       </c>
       <c r="M15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="N15" s="3">
         <v>25000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>28000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>29000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>25000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1654000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1669000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1590000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1478000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1062000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1006000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>940000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>805000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>903000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>896000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>858000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1092000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1146000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1105000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1004000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>896000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>164900</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E18" s="3">
         <v>49000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>66000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>59000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>50000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>41000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>62000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-234000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>63000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
         <v>14000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>13000</v>
       </c>
       <c r="F20" s="3">
         <v>13000</v>
       </c>
       <c r="G20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E21" s="3">
         <v>142000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>152000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>148000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>80000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>98000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>96000</v>
       </c>
       <c r="J21" s="3">
         <v>96000</v>
       </c>
       <c r="K21" s="3">
+        <v>96000</v>
+      </c>
+      <c r="L21" s="3">
         <v>51000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>120000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>112000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-161000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>48000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>90000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>53000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,176 +1514,185 @@
         <v>37000</v>
       </c>
       <c r="E22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F22" s="3">
         <v>33000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>17000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>14000</v>
       </c>
       <c r="J22" s="3">
         <v>14000</v>
       </c>
       <c r="K22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L22" s="3">
         <v>15000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>14000</v>
       </c>
       <c r="O22" s="3">
         <v>14000</v>
       </c>
       <c r="P22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>15000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>7000</v>
       </c>
       <c r="R22" s="3">
         <v>7000</v>
       </c>
       <c r="S22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T22" s="3">
         <v>6000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>159600</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E23" s="3">
         <v>26000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>30000</v>
       </c>
       <c r="J23" s="3">
         <v>30000</v>
       </c>
       <c r="K23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>55000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-245000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>14000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-159600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>18000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-51000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2000</v>
       </c>
       <c r="Q24" s="3">
         <v>2000</v>
       </c>
       <c r="R24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S24" s="3">
         <v>4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-159600</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E26" s="3">
         <v>22000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-194000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-159600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-169000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-244000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-194000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-159600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-13000</v>
       </c>
       <c r="F32" s="3">
         <v>-13000</v>
       </c>
       <c r="G32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-169000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-244000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-194000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>53000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-159600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-169000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-244000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-194000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>53000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-159600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,50 +2487,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E41" s="3">
         <v>605000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>395000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>330000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>315000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1188000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1128000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>686000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>745000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>515000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>467000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>377000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>436000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,50 +2609,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1711000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1772000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1760000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1712000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1636000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>984000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>947000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>848000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>747000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>781000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>906000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>891000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>913000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2587,41 +2683,41 @@
         <v>163000</v>
       </c>
       <c r="E44" s="3">
+        <v>163000</v>
+      </c>
+      <c r="F44" s="3">
         <v>150000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>149000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>142000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>69000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>71000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>69000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>64000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>57000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>60000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>59000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,50 +2733,53 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E45" s="3">
         <v>112000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>167000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>170000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>134000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>385000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>93000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>82000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>77000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2696,50 +2795,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2364000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2652000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2472000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2361000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2227000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2626000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2239000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1685000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1633000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1437000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1504000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1394000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1450000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,50 +2919,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E48" s="3">
         <v>629000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>608000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>614000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>628000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>427000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>439000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>453000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>459000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>462000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>452000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>467000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>500000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,50 +2981,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4139000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4166000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4010000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4254000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4492000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1988000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1996000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1991000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2008000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2047000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1772000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1799000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1836000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,50 +3167,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E52" s="3">
         <v>644000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>851000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>825000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>795000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>118000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>109000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>114000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>118000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>119000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>98000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>110000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>100000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,50 +3291,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7766000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8091000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7941000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8054000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8142000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5159000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4783000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4243000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4218000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4065000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3826000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3770000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3886000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,50 +3403,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E57" s="3">
         <v>490000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>469000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>448000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>391000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>236000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>205000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>180000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>167000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>150000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>142000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>155000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>152000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3332,50 +3463,53 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E58" s="3">
         <v>212000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>28000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>42000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>63000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>49000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>44000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>45000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>244000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3391,50 +3525,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1029000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1219000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1043000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>998000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>971000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>603000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>558000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>508000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>551000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>642000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>648000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>621000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>523000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,50 +3587,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1549000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1921000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1523000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1453000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1367000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>867000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>792000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>730000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>781000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>841000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>834000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>821000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>919000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,50 +3649,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2743000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2595000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2791000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2823000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2819000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1845000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1548000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1538000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1475000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1493000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1248000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1254000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1260000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3568,50 +3711,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E62" s="3">
         <v>651000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>680000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>825000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>881000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>124000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>146000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>147000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>171000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>146000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>130000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>182000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,50 +3959,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4804000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5167000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4994000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5101000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5067000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2836000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2486000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2415000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2427000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2507000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2228000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2205000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2361000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4022,7 +4190,7 @@
         <v>797000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>797000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,50 +4293,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-164000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-186000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-214000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-255000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-237000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-252000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-271000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-292000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-284000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-262000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-289000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-325000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4175,14 +4349,17 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,50 +4541,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2127000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2150000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2156000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2278000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2323000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2297000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1828000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1791000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1558000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1598000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1565000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1525000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-169000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-244000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-194000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>53000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-159600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E83" s="3">
         <v>79000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>73000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>76000</v>
       </c>
       <c r="G83" s="3">
         <v>76000</v>
       </c>
       <c r="H83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="I83" s="3">
         <v>48000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>52000</v>
       </c>
       <c r="J83" s="3">
         <v>52000</v>
       </c>
       <c r="K83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="L83" s="3">
         <v>50000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>52000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>74000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>70000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>69000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>-5300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>188000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>146000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>54000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-118000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>114000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>49000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>167000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>97000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>177000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>55000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>150000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>92000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>25000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>40000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-12000</v>
       </c>
       <c r="H91" s="3">
         <v>-12000</v>
       </c>
       <c r="I91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-11000</v>
       </c>
       <c r="P91" s="3">
         <v>-11000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E94" s="3">
         <v>30000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-40000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-323000</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1000</v>
       </c>
       <c r="N94" s="3">
         <v>-1000</v>
       </c>
       <c r="O94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>18600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-45000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1831000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>288000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>442000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-36000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>223000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-235000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>139000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1398000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>25000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-16000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-242000</v>
+      </c>
+      <c r="E102" s="3">
         <v>209000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>65000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1173000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>361000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>441000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-59000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>233000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>90000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-59000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>180000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>107000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13000</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1614000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1703000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1735000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1649000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1471000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1112000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1047000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>978000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>803000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>882000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>958000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>889000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>858000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>985000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1118000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1067000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>922000</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1189000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1237000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1293000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1212000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1095000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>838000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>795000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>746000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>622000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>684000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>736000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>692000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>696000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>787000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>885000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>859000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>759000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E10" s="3">
         <v>425000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>466000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>442000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>437000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>376000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>274000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>252000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>232000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>181000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>198000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>222000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>197000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>162000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>198000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>233000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>208000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>163000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,93 +1105,99 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-11000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>208000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>12000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E15" s="3">
         <v>48000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>54000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>36000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>53000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>54000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>32000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>30000</v>
       </c>
       <c r="K15" s="3">
         <v>30000</v>
@@ -1186,34 +1209,37 @@
         <v>30000</v>
       </c>
       <c r="N15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="O15" s="3">
         <v>25000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>28000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>29000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>25000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1664000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1544000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1654000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1669000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1590000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1478000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1062000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1006000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>940000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>805000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>903000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>896000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>858000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1092000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1146000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1105000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1004000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>896000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>164900</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E18" s="3">
         <v>70000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>66000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>50000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>41000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-21000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>62000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-234000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-161000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>13000</v>
       </c>
       <c r="G20" s="3">
         <v>13000</v>
       </c>
       <c r="H20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I20" s="3">
         <v>11000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E21" s="3">
         <v>149000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>142000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>152000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>148000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>80000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>98000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>96000</v>
       </c>
       <c r="K21" s="3">
         <v>96000</v>
       </c>
       <c r="L21" s="3">
+        <v>96000</v>
+      </c>
+      <c r="M21" s="3">
         <v>51000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>120000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>112000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-161000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-67000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>48000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>90000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>53000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="E22" s="3">
         <v>37000</v>
       </c>
       <c r="F22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G22" s="3">
         <v>33000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>14000</v>
       </c>
       <c r="K22" s="3">
         <v>14000</v>
       </c>
       <c r="L22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M22" s="3">
         <v>15000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>14000</v>
       </c>
       <c r="P22" s="3">
         <v>14000</v>
       </c>
       <c r="Q22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R22" s="3">
         <v>15000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>7000</v>
       </c>
       <c r="S22" s="3">
         <v>7000</v>
       </c>
       <c r="T22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="U22" s="3">
         <v>6000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>159600</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E23" s="3">
         <v>38000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>30000</v>
       </c>
       <c r="K23" s="3">
         <v>30000</v>
       </c>
       <c r="L23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="M23" s="3">
         <v>-14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>55000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-245000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-151000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>57000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-159600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-12000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-51000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2000</v>
       </c>
       <c r="R24" s="3">
         <v>2000</v>
       </c>
       <c r="S24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T24" s="3">
         <v>4000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-159600</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E26" s="3">
         <v>26000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-194000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-153000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-159600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E27" s="3">
         <v>15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-169000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-244000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-194000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-153000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>53000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-159600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-13000</v>
       </c>
       <c r="G32" s="3">
         <v>-13000</v>
       </c>
       <c r="H32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-11000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E33" s="3">
         <v>15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-169000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-244000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-194000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-153000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>53000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>21000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-159600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E35" s="3">
         <v>15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-169000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-244000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-194000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-153000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>53000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>21000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-159600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,53 +2574,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E41" s="3">
         <v>363000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>605000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>395000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>330000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>315000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1188000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1128000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>686000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>745000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>515000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>467000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>377000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>436000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,53 +2702,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1711000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1772000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1760000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1712000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1636000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>984000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>947000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>848000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>747000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>781000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>906000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>891000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>913000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,53 +2767,56 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>163000</v>
+        <v>170000</v>
       </c>
       <c r="E44" s="3">
         <v>163000</v>
       </c>
       <c r="F44" s="3">
+        <v>163000</v>
+      </c>
+      <c r="G44" s="3">
         <v>150000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>149000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>142000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>69000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>71000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>69000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>64000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>57000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>60000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>59000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,53 +2832,56 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E45" s="3">
         <v>127000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>112000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>167000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>170000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>134000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>385000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>93000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>82000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>75000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>77000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2798,53 +2897,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2532000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2364000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2652000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2472000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2361000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2227000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2626000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2239000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1685000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1633000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1437000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1504000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1394000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1450000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,53 +3027,56 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E48" s="3">
         <v>621000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>629000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>608000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>614000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>628000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>427000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>439000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>453000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>459000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>462000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>452000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>467000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>500000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,53 +3092,56 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4139000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4166000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4010000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4254000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4492000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1988000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1996000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1991000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2008000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2047000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1772000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1799000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1836000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,53 +3287,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E52" s="3">
         <v>642000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>644000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>851000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>825000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>795000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>118000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>109000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>114000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>118000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>119000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>98000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>110000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>100000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,53 +3417,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7974000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7766000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8091000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7941000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8054000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8142000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5159000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4783000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4243000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4218000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4065000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3826000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3770000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3886000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,53 +3534,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E57" s="3">
         <v>442000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>490000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>469000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>448000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>391000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>236000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>205000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>180000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>167000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>150000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>142000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>155000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>152000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,53 +3597,56 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E58" s="3">
         <v>78000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>212000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>28000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>29000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>63000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>49000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>44000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>45000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>244000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3528,53 +3662,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1029000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1219000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1043000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>998000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>971000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>603000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>558000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>508000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>551000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>642000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>648000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>621000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>523000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,53 +3727,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1651000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1549000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1921000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1523000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1453000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1367000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>867000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>792000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>730000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>781000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>841000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>834000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>821000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>919000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,53 +3792,56 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2743000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2595000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2791000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2823000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2819000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1845000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1548000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1538000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1475000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1493000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1248000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1254000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1260000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3714,53 +3857,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E62" s="3">
         <v>512000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>651000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>680000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>825000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>881000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>124000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>146000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>147000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>171000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>173000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>146000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>130000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>182000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,53 +4117,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4930000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4804000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5167000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4994000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5101000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5067000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2836000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2486000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2415000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2427000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2507000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2228000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2205000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2361000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4193,7 +4361,7 @@
         <v>797000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>797000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,53 +4467,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-138000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-164000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-186000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-214000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-255000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-237000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-252000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-271000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-292000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-284000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-262000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-289000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-325000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4352,14 +4526,17 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,53 +4727,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2247000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2165000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2127000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2150000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2156000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2278000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2323000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2297000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1828000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1791000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1558000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1598000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1565000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1525000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E81" s="3">
         <v>15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-169000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-244000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-194000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-153000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>53000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>21000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-159600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E83" s="3">
         <v>74000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>79000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>73000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>76000</v>
       </c>
       <c r="H83" s="3">
         <v>76000</v>
       </c>
       <c r="I83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="J83" s="3">
         <v>48000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>52000</v>
       </c>
       <c r="K83" s="3">
         <v>52000</v>
       </c>
       <c r="L83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="M83" s="3">
         <v>50000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>74000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>70000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>69000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>-5300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>188000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>146000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>54000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-118000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>114000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>49000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>167000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>97000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>177000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>55000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>150000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>92000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>40000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-12000</v>
       </c>
       <c r="I91" s="3">
         <v>-12000</v>
       </c>
       <c r="J91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-11000</v>
       </c>
       <c r="Q91" s="3">
         <v>-11000</v>
       </c>
       <c r="R91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-13000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>30000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-323000</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1000</v>
       </c>
       <c r="O94" s="3">
         <v>-1000</v>
       </c>
       <c r="P94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>18600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-216000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-45000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1831000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>288000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>442000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-36000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>223000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-235000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>139000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1398000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>25000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-16000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5870,119 +6119,125 @@
         <v>2000</v>
       </c>
       <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-242000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>209000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>65000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1173000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>361000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>441000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-59000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>233000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>90000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-59000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>180000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-181000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>107000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>APG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1771000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1614000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1703000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1735000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1649000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1471000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1112000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1047000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>978000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>803000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>882000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>958000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>889000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>858000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>985000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1118000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1067000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>922000</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1273000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1275000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1189000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1237000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1293000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1212000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1095000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>838000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>795000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>746000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>622000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>684000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>736000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>692000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>696000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>787000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>885000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>859000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>759000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>511000</v>
+      </c>
+      <c r="E10" s="3">
         <v>496000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>425000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>466000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>442000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>437000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>376000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>274000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>252000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>232000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>181000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>198000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>222000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>197000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>162000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>198000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>233000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>208000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>163000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,99 +1125,105 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>24000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-11000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>208000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>12000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E15" s="3">
         <v>50000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>48000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>54000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>36000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>53000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>54000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>32000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>30000</v>
       </c>
       <c r="L15" s="3">
         <v>30000</v>
@@ -1212,34 +1235,37 @@
         <v>30000</v>
       </c>
       <c r="O15" s="3">
+        <v>30000</v>
+      </c>
+      <c r="P15" s="3">
         <v>25000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>28000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>29000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>8000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>25000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>200</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1680000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1664000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1544000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1654000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1669000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1590000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1478000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1062000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1006000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>940000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>805000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>903000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>896000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>858000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1092000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1146000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1105000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1004000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>896000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>164900</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E18" s="3">
         <v>107000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>70000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>66000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>59000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>50000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>41000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-21000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>62000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-234000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-161000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>63000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1448,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>13000</v>
       </c>
       <c r="H20" s="3">
         <v>13000</v>
       </c>
       <c r="I20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J20" s="3">
         <v>11000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1489,259 +1526,271 @@
         <v>188000</v>
       </c>
       <c r="E21" s="3">
+        <v>188000</v>
+      </c>
+      <c r="F21" s="3">
         <v>149000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>142000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>152000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>148000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>80000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>98000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>96000</v>
       </c>
       <c r="L21" s="3">
         <v>96000</v>
       </c>
       <c r="M21" s="3">
+        <v>96000</v>
+      </c>
+      <c r="N21" s="3">
         <v>51000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>120000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>112000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-161000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-67000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>48000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>90000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>53000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E22" s="3">
         <v>38000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>37000</v>
       </c>
       <c r="F22" s="3">
         <v>37000</v>
       </c>
       <c r="G22" s="3">
+        <v>37000</v>
+      </c>
+      <c r="H22" s="3">
         <v>33000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>27000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>14000</v>
       </c>
       <c r="L22" s="3">
         <v>14000</v>
       </c>
       <c r="M22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N22" s="3">
         <v>15000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>14000</v>
       </c>
       <c r="Q22" s="3">
         <v>14000</v>
       </c>
       <c r="R22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="S22" s="3">
         <v>15000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>7000</v>
       </c>
       <c r="T22" s="3">
         <v>7000</v>
       </c>
       <c r="U22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V22" s="3">
         <v>6000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>159600</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E23" s="3">
         <v>75000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>38000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>30000</v>
       </c>
       <c r="L23" s="3">
         <v>30000</v>
       </c>
       <c r="M23" s="3">
+        <v>30000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>55000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-245000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-151000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>57000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>22000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-159600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="3">
         <v>27000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-51000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2000</v>
       </c>
       <c r="S24" s="3">
         <v>2000</v>
       </c>
       <c r="T24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U24" s="3">
         <v>4000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-159600</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E26" s="3">
         <v>48000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>27000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-194000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-153000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-159600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E27" s="3">
         <v>37000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-169000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-244000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>27000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-194000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-153000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>53000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-159600</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-13000</v>
       </c>
       <c r="H32" s="3">
         <v>-13000</v>
       </c>
       <c r="I32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-11000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E33" s="3">
         <v>37000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-169000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-244000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>27000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-194000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-153000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>53000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>21000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-159600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E35" s="3">
         <v>37000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-169000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-244000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>27000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-194000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-153000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>53000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>21000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-159600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,56 +2661,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E41" s="3">
         <v>368000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>363000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>605000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>395000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>330000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>315000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1188000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1128000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>686000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>745000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>515000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>467000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>377000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>436000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,8 +2727,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,56 +2795,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1810000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1827000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1711000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1772000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1760000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1712000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1636000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>984000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>947000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>848000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>747000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>781000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>906000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>891000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>913000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2770,56 +2863,59 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E44" s="3">
         <v>170000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>163000</v>
       </c>
       <c r="F44" s="3">
         <v>163000</v>
       </c>
       <c r="G44" s="3">
+        <v>163000</v>
+      </c>
+      <c r="H44" s="3">
         <v>150000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>149000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>142000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>69000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>71000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>69000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>66000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>64000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>57000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>60000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>59000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,56 +2931,59 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E45" s="3">
         <v>167000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>127000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>112000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>167000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>170000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>134000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>385000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>93000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>75000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>77000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>74000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>66000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2900,56 +2999,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2652000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2532000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2364000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2652000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2472000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2361000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2227000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2626000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2239000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1685000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1633000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1437000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1504000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1394000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1450000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3067,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,56 +3135,59 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E48" s="3">
         <v>639000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>621000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>629000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>608000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>614000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>628000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>427000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>439000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>453000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>459000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>462000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>452000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>467000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>500000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,56 +3203,59 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4028000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4147000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4139000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4166000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4010000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4254000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4492000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1988000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1996000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1991000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2008000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2047000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1772000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1799000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1836000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,56 +3407,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>665000</v>
+      </c>
+      <c r="E52" s="3">
         <v>656000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>642000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>644000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>851000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>825000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>795000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>118000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>109000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>118000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>119000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>98000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>110000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,56 +3543,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7949000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7974000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7766000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8091000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7941000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8054000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8142000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5159000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4783000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4243000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4218000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4065000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3826000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3770000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3886000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3611,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,56 +3665,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E57" s="3">
         <v>473000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>442000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>490000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>469000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>448000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>391000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>236000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>205000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>180000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>167000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>150000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>142000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>155000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>152000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,56 +3731,59 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E58" s="3">
         <v>79000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>78000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>212000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>63000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>49000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>44000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>45000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>244000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,56 +3799,59 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1140000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1099000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1029000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1219000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1043000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>998000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>971000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>603000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>558000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>508000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>551000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>642000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>648000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>621000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>523000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,56 +3867,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1651000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1549000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1921000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1523000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1453000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1367000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>867000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>792000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>730000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>781000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>841000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>834000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>821000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>919000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3795,56 +3935,59 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2512000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2758000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2743000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2595000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2791000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2823000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2819000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1845000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1548000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1538000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1475000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1493000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1248000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1254000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1260000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3860,56 +4003,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E62" s="3">
         <v>521000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>512000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>651000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>680000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>825000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>881000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>124000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>146000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>147000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>171000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>173000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>146000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>130000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>182000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3925,8 +4071,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,56 +4275,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4920000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4930000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4804000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5167000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4994000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5101000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5067000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2836000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2486000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2415000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2427000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2507000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2228000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2205000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2361000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4343,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4364,7 +4532,7 @@
         <v>797000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>797000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,56 +4641,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-90000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-138000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-164000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-186000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-214000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-255000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-237000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-252000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-271000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-292000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-284000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-262000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-289000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-325000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4529,14 +4703,17 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,56 +4913,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2232000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2247000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2165000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2127000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2150000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2156000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2278000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2323000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2297000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1828000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1791000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1558000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1598000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1565000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1525000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4981,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E81" s="3">
         <v>37000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-169000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-244000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>27000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-194000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-153000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>53000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>21000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-159600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E83" s="3">
         <v>75000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>74000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>79000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>73000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>76000</v>
       </c>
       <c r="I83" s="3">
         <v>76000</v>
       </c>
       <c r="J83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K83" s="3">
         <v>48000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>52000</v>
       </c>
       <c r="L83" s="3">
         <v>52000</v>
       </c>
       <c r="M83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="N83" s="3">
         <v>50000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>74000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>70000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>69000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>25000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>-5300</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E89" s="3">
         <v>74000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>188000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>146000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>54000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-118000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>114000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>49000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>167000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>97000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>177000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>55000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>150000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>92000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>28000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>40000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-12000</v>
       </c>
       <c r="J91" s="3">
         <v>-12000</v>
       </c>
       <c r="K91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-11000</v>
       </c>
       <c r="R91" s="3">
         <v>-11000</v>
       </c>
       <c r="S91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22000</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>30000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2884000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-323000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1000</v>
       </c>
       <c r="P94" s="3">
         <v>-1000</v>
       </c>
       <c r="Q94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R94" s="3">
         <v>-15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1728000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-22000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>18600</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6288,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-216000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-45000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1831000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>288000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>442000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-36000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>223000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-235000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>139000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1398000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>25000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-19000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-16000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>-5000</v>
       </c>
       <c r="E101" s="3">
         <v>2000</v>
       </c>
       <c r="F101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-242000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>209000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>65000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1173000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>361000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>441000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-59000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>233000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>48000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>90000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>180000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-181000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>107000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13000</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
